--- a/Waste/A2_Extra_Inputs/A-Xtra_Emissions.xlsx
+++ b/Waste/A2_Extra_Inputs/A-Xtra_Emissions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IgnacioAlfaroCorrale\Desktop\Models_running\Waste3\A2_Extra_Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IgnacioAlfaroCorrale\Desktop\Models_running\Waste_2025_01_13\A2_Extra_Inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAC6591-06DC-4D6F-9F53-794EB46212BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65B84B0-91F9-46BC-B901-638C97F31561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GHGs" sheetId="1" r:id="rId1"/>
@@ -1566,21 +1566,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B8F814574E960A4499025803604D4DF4" ma:contentTypeVersion="9" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="314e7041d7d1561dbe33e80becf1c782">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4b2ff61d-e0c4-454b-ba72-44cf85c32a41" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="84c838da6aa04a0f137f8b0aba02cfe1" ns2:_="">
     <xsd:import namespace="4b2ff61d-e0c4-454b-ba72-44cf85c32a41"/>
@@ -1750,12 +1735,35 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EC1CB49-63A2-4BB9-A6E1-B93BAD25C62D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC451CDA-A204-4231-ABF4-03ECD64697A3}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="4b2ff61d-e0c4-454b-ba72-44cf85c32a41"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="9c2c21c4-f980-47d5-be5b-1bb924ee96a2"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1769,5 +1777,11 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC451CDA-A204-4231-ABF4-03ECD64697A3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0EC1CB49-63A2-4BB9-A6E1-B93BAD25C62D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="9c2c21c4-f980-47d5-be5b-1bb924ee96a2"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>